--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1559.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1559.xlsx
@@ -351,10 +351,10 @@
         <v>1.366730814650718</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.241383212302603</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1559.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1559.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.366730814650718</v>
+        <v>1.283252000808716</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.425832629203796</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.82899808883667</v>
       </c>
       <c r="D1">
-        <v>1.241383212302603</v>
+        <v>1.993505716323853</v>
       </c>
       <c r="E1">
-        <v>0.8141398816619093</v>
+        <v>0.8935665488243103</v>
       </c>
     </row>
   </sheetData>
